--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/204.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/204.xlsx
@@ -479,13 +479,13 @@
         <v>-14.04687964555673</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.68829654888009</v>
+        <v>-14.75815707684354</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07693308533707445</v>
+        <v>-0.01847595314876756</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.16136108634751</v>
+        <v>-11.25452591336923</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.98478381525859</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.84337487604034</v>
+        <v>-14.90636194501188</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.009010218194199615</v>
+        <v>0.05740703412187673</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.86849936408094</v>
+        <v>-10.95540607034432</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.82709163797846</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.20417255775263</v>
+        <v>-15.27312971682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02923239840648223</v>
+        <v>0.09032108346597606</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.50249094583764</v>
+        <v>-10.59706974156627</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.56230668481483</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.71303109230199</v>
+        <v>-15.78875697193854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1556909515547143</v>
+        <v>0.2257609563636322</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.31554595356064</v>
+        <v>-10.41419645547304</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.18310678797446</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.19715826678334</v>
+        <v>-16.27818652907078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1474951699757938</v>
+        <v>0.2142266375600716</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.15640901251946</v>
+        <v>-10.25919668212985</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.68663284238438</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.7663199482217</v>
+        <v>-16.86003465196277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2798321670999609</v>
+        <v>0.3668436117860723</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.00887185179605</v>
+        <v>-10.11080852172172</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.06996994160822</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.35093054701329</v>
+        <v>-17.45544640059879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4308256957735876</v>
+        <v>0.5088427284074333</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.803492897117888</v>
+        <v>-9.905023705655474</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.33681801172055</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.07613938602218</v>
+        <v>-18.19453308061991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7071649318538997</v>
+        <v>0.7954070530071334</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.840033514349146</v>
+        <v>-9.943305599164681</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.50524696736311</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.55784448447781</v>
+        <v>-18.68427685302036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7505790080770635</v>
+        <v>0.8278759640546142</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.494409811630419</v>
+        <v>-9.593439990325235</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.595035879725785</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.16064029191656</v>
+        <v>-19.29693116449893</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8760949154206912</v>
+        <v>0.953339502186875</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.446635998560961</v>
+        <v>-9.549593868108294</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.631531077118607</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.70709992022736</v>
+        <v>-19.84675551464005</v>
       </c>
       <c r="F12" t="n">
-        <v>1.03309781109867</v>
+        <v>1.120449655658666</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.954967657642781</v>
+        <v>-9.059287126685653</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.641475124129413</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.51890125023143</v>
+        <v>-20.66536484212182</v>
       </c>
       <c r="F13" t="n">
-        <v>1.216966112207871</v>
+        <v>1.310746277463155</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.461361655904025</v>
+        <v>-8.578721058577257</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.67037414399798</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.35069452667481</v>
+        <v>-21.49806148746128</v>
       </c>
       <c r="F14" t="n">
-        <v>1.536248101609045</v>
+        <v>1.640698493680335</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.002921579598144</v>
+        <v>-8.136279776343965</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.757283666817212</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.17367668330571</v>
+        <v>-22.32472258119071</v>
       </c>
       <c r="F15" t="n">
-        <v>1.648632429202421</v>
+        <v>1.757350912000115</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.560441020456328</v>
+        <v>-7.70783416584848</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.9373116427135</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.03161528852402</v>
+        <v>-23.1785763879224</v>
       </c>
       <c r="F16" t="n">
-        <v>1.926346357081115</v>
+        <v>2.039411484422261</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.983332311193043</v>
+        <v>-7.120107598980555</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.235240266898695</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.64522533811004</v>
+        <v>-23.78867770034683</v>
       </c>
       <c r="F17" t="n">
-        <v>2.116603701977078</v>
+        <v>2.231397013293332</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.896216128084197</v>
+        <v>-7.037639183380523</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.677019961384363</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.4569612065999</v>
+        <v>-24.60457692114036</v>
       </c>
       <c r="F18" t="n">
-        <v>2.530870348494974</v>
+        <v>2.658022793693818</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.49521198434497</v>
+        <v>-6.636242270556044</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.275059228992548</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.30624579963983</v>
+        <v>-25.4606433270523</v>
       </c>
       <c r="F19" t="n">
-        <v>2.79578000419446</v>
+        <v>2.924791556396828</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.193080911666458</v>
+        <v>-6.327499584942459</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.030877529613812</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.05936742830728</v>
+        <v>-26.21396134026238</v>
       </c>
       <c r="F20" t="n">
-        <v>3.01764216815035</v>
+        <v>3.1463656896902</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.077973385082002</v>
+        <v>-6.228770529213003</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.934600121293026</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.6432972273511</v>
+        <v>-26.7985195698426</v>
       </c>
       <c r="F21" t="n">
-        <v>3.336046973261127</v>
+        <v>3.459769235115439</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.749186383817735</v>
+        <v>-5.889967916274816</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.973841594519997</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.22949199478655</v>
+        <v>-27.38599738295654</v>
       </c>
       <c r="F22" t="n">
-        <v>3.543926557782054</v>
+        <v>3.656703654460682</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.600287623598785</v>
+        <v>-5.759738779908166</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.130151450720838</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.67777244408725</v>
+        <v>-27.82724726563123</v>
       </c>
       <c r="F23" t="n">
-        <v>3.726852213086651</v>
+        <v>3.837796387367437</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.402397466146095</v>
+        <v>-5.555773793936916</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.381292555420327</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.90694011302882</v>
+        <v>-28.05822167236496</v>
       </c>
       <c r="F24" t="n">
-        <v>3.862540839738299</v>
+        <v>3.974741875091892</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.239647049520598</v>
+        <v>-5.395249068794513</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.701579330980547</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.175018106016</v>
+        <v>-28.32144242099787</v>
       </c>
       <c r="F25" t="n">
-        <v>4.177620199927279</v>
+        <v>4.290894804113893</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.947020988705179</v>
+        <v>-5.097451548356611</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.066569928071133</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.13508658234874</v>
+        <v>-28.28045042080042</v>
       </c>
       <c r="F26" t="n">
-        <v>4.336508387214467</v>
+        <v>4.460466310519929</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.949927479936043</v>
+        <v>-5.106118652837834</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.4535367022155</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.02787371437784</v>
+        <v>-28.16828866235536</v>
       </c>
       <c r="F27" t="n">
-        <v>4.290711511874108</v>
+        <v>4.407023530320004</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.768153947281517</v>
+        <v>-4.907613157151584</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.844831552499802</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.97584490288482</v>
+        <v>-28.12086834146262</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272146626444541</v>
+        <v>4.377434925897703</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.685685531681485</v>
+        <v>-4.814278130192919</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.223475750217948</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.76406381211706</v>
+        <v>-27.90004046943123</v>
       </c>
       <c r="F29" t="n">
-        <v>4.260939615212024</v>
+        <v>4.363242869617271</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.567147821752497</v>
+        <v>-4.689757237865262</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.575151779163904</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.61907965044779</v>
+        <v>-27.75111552460659</v>
       </c>
       <c r="F30" t="n">
-        <v>4.16541817367879</v>
+        <v>4.25855681609483</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.520892715812679</v>
+        <v>-4.64271659375494</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.887118072503768</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.17546006095874</v>
+        <v>-27.30219355246665</v>
       </c>
       <c r="F31" t="n">
-        <v>4.021245734785703</v>
+        <v>4.109199825276419</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.614502681131021</v>
+        <v>-4.723627025316807</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.154321653804056</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.80033939993761</v>
+        <v>-26.92128609358947</v>
       </c>
       <c r="F32" t="n">
-        <v>3.936276689342901</v>
+        <v>4.019281889359444</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.694863235973535</v>
+        <v>-4.802704534480832</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.372188142679013</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.38067872464892</v>
+        <v>-26.50153377218089</v>
       </c>
       <c r="F33" t="n">
-        <v>3.803363630893698</v>
+        <v>3.8846930161465</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.63709999583584</v>
+        <v>-4.717093966198786</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.537019215968059</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.89509830455214</v>
+        <v>-26.01198638432307</v>
       </c>
       <c r="F34" t="n">
-        <v>3.675163801467516</v>
+        <v>3.750104142933556</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.460157522929912</v>
+        <v>-4.5272686672966</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.646845813823122</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.48957731633252</v>
+        <v>-25.5997359524428</v>
       </c>
       <c r="F35" t="n">
-        <v>3.435469921041195</v>
+        <v>3.512321738722127</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.468916273531026</v>
+        <v>-4.524034868494693</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.706644756323189</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.8004115870469</v>
+        <v>-24.91129029981348</v>
       </c>
       <c r="F36" t="n">
-        <v>3.221096554310773</v>
+        <v>3.285405945869331</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.739769834720655</v>
+        <v>-4.788826693468603</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.722061035932894</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.32311859464893</v>
+        <v>-24.42771300205148</v>
       </c>
       <c r="F37" t="n">
-        <v>3.089937864442361</v>
+        <v>3.157415593288617</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.736221820650548</v>
+        <v>-4.774477529554071</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.69862228812157</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.90929708642766</v>
+        <v>-24.00856292657362</v>
       </c>
       <c r="F38" t="n">
-        <v>3.017511245121932</v>
+        <v>3.082998943936246</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.879058844653779</v>
+        <v>-4.9221456133059</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.644067410496663</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.410388702038</v>
+        <v>-23.50666949713605</v>
       </c>
       <c r="F39" t="n">
-        <v>2.988917655715603</v>
+        <v>3.05595024626524</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.752155153208928</v>
+        <v>-4.787190155613387</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.567986254942916</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.02806727445391</v>
+        <v>-23.12124519377848</v>
       </c>
       <c r="F40" t="n">
-        <v>3.075169746836894</v>
+        <v>3.156001624581711</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.74048991137695</v>
+        <v>-4.766766163180295</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.47964867567453</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.49814322463221</v>
+        <v>-22.5893834831362</v>
       </c>
       <c r="F41" t="n">
-        <v>3.094336878197181</v>
+        <v>3.166449282249408</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.668613168775874</v>
+        <v>-4.694457374585442</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.384771503916055</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.82394199749469</v>
+        <v>-21.907627997259</v>
       </c>
       <c r="F42" t="n">
-        <v>3.190486750266817</v>
+        <v>3.258671463466526</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.695504758812779</v>
+        <v>-4.723456825379865</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.289125970184539</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.16127508916072</v>
+        <v>-21.24349475100676</v>
       </c>
       <c r="F43" t="n">
-        <v>3.308474583476452</v>
+        <v>3.377628127086449</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.737256112575044</v>
+        <v>-4.771597222928891</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.197991090077624</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.87327061124843</v>
+        <v>-20.95088178249418</v>
       </c>
       <c r="F44" t="n">
-        <v>3.216854648190053</v>
+        <v>3.280378501578108</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.78979552387889</v>
+        <v>-4.819973281929069</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.115615553454582</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.38868520616762</v>
+        <v>-20.46007753356356</v>
       </c>
       <c r="F45" t="n">
-        <v>3.341964694145588</v>
+        <v>3.411929960531772</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.739010481155836</v>
+        <v>-4.76460593321141</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.041314447555837</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.05998985102325</v>
+        <v>-20.1345897926154</v>
       </c>
       <c r="F46" t="n">
-        <v>3.370584468157601</v>
+        <v>3.438821550568677</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.718939980899469</v>
+        <v>-4.728012946768786</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.972745008593511</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.51879332845482</v>
+        <v>-19.58539387301068</v>
       </c>
       <c r="F47" t="n">
-        <v>3.37922538803314</v>
+        <v>3.444294133156518</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.990605264865285</v>
+        <v>-4.994310386569493</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.90773127758331</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.04447228880192</v>
+        <v>-19.10862457272638</v>
       </c>
       <c r="F48" t="n">
-        <v>3.310098029028826</v>
+        <v>3.370453545129183</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106328129683302</v>
+        <v>-5.108606190377762</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.844720011606052</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.65467515629522</v>
+        <v>-18.72958931315557</v>
       </c>
       <c r="F49" t="n">
-        <v>3.329474637234581</v>
+        <v>3.388573292262132</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.393442331002355</v>
+        <v>-5.400341974599944</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.78020308409752</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.14107720811714</v>
+        <v>-18.21246953551308</v>
       </c>
       <c r="F50" t="n">
-        <v>3.467703170637525</v>
+        <v>3.538375421377162</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.315333652248617</v>
+        <v>-5.299570519627179</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.710110155577421</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.47538597782674</v>
+        <v>-17.55006447323595</v>
       </c>
       <c r="F51" t="n">
-        <v>3.483466303258963</v>
+        <v>3.559244552106873</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.528332327180658</v>
+        <v>-5.512058594748392</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.634214898287143</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.0837297383165</v>
+        <v>-17.15627418836251</v>
       </c>
       <c r="F52" t="n">
-        <v>3.314078089092711</v>
+        <v>3.383126894279974</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814988297900251</v>
+        <v>-5.817816235314063</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.555851036467457</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.69259719091994</v>
+        <v>-16.76950137781224</v>
       </c>
       <c r="F53" t="n">
-        <v>3.349820075850623</v>
+        <v>3.414443682677383</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.84608251714935</v>
+        <v>-5.845192240556113</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.477718640158407</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.49320141864045</v>
+        <v>-16.58030450944645</v>
       </c>
       <c r="F54" t="n">
-        <v>3.085538850687541</v>
+        <v>3.147255966283438</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.024831727847435</v>
+        <v>-6.016478838634415</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.40066882193149</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.20145254211543</v>
+        <v>-16.29468283065136</v>
       </c>
       <c r="F55" t="n">
-        <v>2.937726751604453</v>
+        <v>3.001302974203875</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.169671874185451</v>
+        <v>-6.152049634560488</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.329003635707501</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.86974595731745</v>
+        <v>-15.97301804213299</v>
       </c>
       <c r="F56" t="n">
-        <v>2.88399594074201</v>
+        <v>2.947729270975532</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476332883647201</v>
+        <v>-6.473426392416338</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.266814417528596</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.32329942130949</v>
+        <v>-15.42572050644031</v>
       </c>
       <c r="F57" t="n">
-        <v>2.918035928130498</v>
+        <v>2.992243100637401</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734120326600787</v>
+        <v>-6.729983158902802</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.21600071009715</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.11980575824054</v>
+        <v>-15.22847187182687</v>
       </c>
       <c r="F58" t="n">
-        <v>2.75922629466036</v>
+        <v>2.836051927735609</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709388966532766</v>
+        <v>-6.707726244071868</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.175163791894893</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.77437844006444</v>
+        <v>-14.88711625983455</v>
       </c>
       <c r="F59" t="n">
-        <v>2.882922371908988</v>
+        <v>2.969567232115531</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.82022840239082</v>
+        <v>-6.815043850465496</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.144029196049468</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.71709961513189</v>
+        <v>-14.83728695521894</v>
       </c>
       <c r="F60" t="n">
-        <v>2.701855823607917</v>
+        <v>2.788448314603093</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823593124221143</v>
+        <v>-6.823881154883662</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.121382632833692</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.37338738862806</v>
+        <v>-14.49150614486611</v>
       </c>
       <c r="F61" t="n">
-        <v>2.587638573616698</v>
+        <v>2.675226079627846</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.228695158749831</v>
+        <v>-7.239090447206162</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.104907401427337</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.16410692770306</v>
+        <v>-14.29459791012655</v>
       </c>
       <c r="F62" t="n">
-        <v>2.540506283386485</v>
+        <v>2.632361880124034</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177294777793215</v>
+        <v>-7.175200009338538</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.089325811001507</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.84491658442178</v>
+        <v>-13.97650732028397</v>
       </c>
       <c r="F63" t="n">
-        <v>2.46818440248879</v>
+        <v>2.559516307112671</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.37614067335335</v>
+        <v>-7.384598300989105</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.070734670530582</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.65598156211284</v>
+        <v>-13.79494326447491</v>
       </c>
       <c r="F64" t="n">
-        <v>2.378947266319585</v>
+        <v>2.473866461922099</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.397494219288205</v>
+        <v>-7.384035331966911</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.046172520245102</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.46572421721687</v>
+        <v>-13.60760550311266</v>
       </c>
       <c r="F65" t="n">
-        <v>2.141060123685422</v>
+        <v>2.214246096570671</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741494476454558</v>
+        <v>-7.742986998978515</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.013975942375307</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.24963575881418</v>
+        <v>-13.39420096679252</v>
       </c>
       <c r="F66" t="n">
-        <v>2.074498856038087</v>
+        <v>2.147999044191537</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.787605567063117</v>
+        <v>-7.779003924096103</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.971557571421304</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.07959292950584</v>
+        <v>-13.22559829079677</v>
       </c>
       <c r="F67" t="n">
-        <v>2.343519494829874</v>
+        <v>2.446503548982891</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.862624462346208</v>
+        <v>-7.868882583104552</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.917316836842114</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.02869005605721</v>
+        <v>-13.18001089230188</v>
       </c>
       <c r="F68" t="n">
-        <v>2.057138462469958</v>
+        <v>2.140169847092185</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.765715236711751</v>
+        <v>-7.757179055258946</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.85139453498513</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.88815727735413</v>
+        <v>-13.04060405164318</v>
       </c>
       <c r="F69" t="n">
-        <v>2.111419150051754</v>
+        <v>2.216786003321966</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.838050209912288</v>
+        <v>-7.829474751550957</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.775049891251496</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.86337354807474</v>
+        <v>-13.02599304167182</v>
       </c>
       <c r="F70" t="n">
-        <v>2.111314411629021</v>
+        <v>2.210344590323837</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.74788352024132</v>
+        <v>-7.735026878850745</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.688402954877597</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.55847999949662</v>
+        <v>-12.71607204880248</v>
       </c>
       <c r="F71" t="n">
-        <v>2.06632925906485</v>
+        <v>2.167558944637076</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.460520565168275</v>
+        <v>-7.428431330903204</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.590769405983908</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.49089753222763</v>
+        <v>-12.64694468979816</v>
       </c>
       <c r="F72" t="n">
-        <v>2.076253224618878</v>
+        <v>2.171853219969162</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.523769480196654</v>
+        <v>-7.499797473693453</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.484671456747744</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.18290110787603</v>
+        <v>-12.30117697174818</v>
       </c>
       <c r="F73" t="n">
-        <v>2.052268125812836</v>
+        <v>2.148234705642688</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.261648485002456</v>
+        <v>-7.218103485750875</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.374369221857592</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.38458803315282</v>
+        <v>-12.503688712104</v>
       </c>
       <c r="F74" t="n">
-        <v>2.07672454752118</v>
+        <v>2.169653713091752</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.209213812121343</v>
+        <v>-7.173956240568574</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.263579837388978</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.51727852245371</v>
+        <v>-12.6369159858214</v>
       </c>
       <c r="F75" t="n">
-        <v>2.008723126561255</v>
+        <v>2.10167847673751</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.135635070150842</v>
+        <v>-7.107984126549117</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.154954647886537</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.777985548941</v>
+        <v>-12.8873324622751</v>
       </c>
       <c r="F76" t="n">
-        <v>1.990289164160105</v>
+        <v>2.077274424240533</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.792904766360137</v>
+        <v>-6.745510630073089</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.05407347952432</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.35455747378778</v>
+        <v>-13.45907332737328</v>
       </c>
       <c r="F77" t="n">
-        <v>1.982695628511904</v>
+        <v>2.072194610737943</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.73292892704219</v>
+        <v>-6.70046001599471</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.967053318561717</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.8477445218356</v>
+        <v>-13.94736385415829</v>
       </c>
       <c r="F78" t="n">
-        <v>2.032603486944563</v>
+        <v>2.125061329612833</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.744515615057118</v>
+        <v>-6.731973188934744</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.899498138925308</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.33646709461439</v>
+        <v>-14.43516996573816</v>
       </c>
       <c r="F79" t="n">
-        <v>2.078007593199669</v>
+        <v>2.168527775047364</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645865113144712</v>
+        <v>-6.643587052450251</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.855307391638827</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.8851262298026</v>
+        <v>-14.98255914755073</v>
       </c>
       <c r="F80" t="n">
-        <v>1.969969910149746</v>
+        <v>2.047738189029599</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.296444642601885</v>
+        <v>-6.283077401400482</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.839605050460823</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.65753282055592</v>
+        <v>-15.75335538505451</v>
       </c>
       <c r="F81" t="n">
-        <v>2.067690858560389</v>
+        <v>2.150198551068947</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.236717557037931</v>
+        <v>-6.230839113061996</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.858229970653802</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.38728468865089</v>
+        <v>-16.47982108513621</v>
       </c>
       <c r="F82" t="n">
-        <v>2.040799268523484</v>
+        <v>2.115242102481538</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.136482886481676</v>
+        <v>-6.128575135565273</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.918202953199981</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.26365725627035</v>
+        <v>-17.35722794468016</v>
       </c>
       <c r="F83" t="n">
-        <v>2.021186998866578</v>
+        <v>2.098850539323697</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.842167918599674</v>
+        <v>-5.829638584780142</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.02456604675212</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.31786257338897</v>
+        <v>-18.40923375492138</v>
       </c>
       <c r="F84" t="n">
-        <v>2.035379055147009</v>
+        <v>2.103642322163769</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.728854037504535</v>
+        <v>-5.726366499964607</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.181730399652054</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.11742260023602</v>
+        <v>-19.20711796700469</v>
       </c>
       <c r="F85" t="n">
-        <v>2.060882861082692</v>
+        <v>2.133728434094055</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.589591212177094</v>
+        <v>-5.596242102020692</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.393030972693962</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.26425595995986</v>
+        <v>-20.36191144685629</v>
       </c>
       <c r="F86" t="n">
-        <v>2.04881175786262</v>
+        <v>2.120609946646646</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252412044791281</v>
+        <v>-5.253708182772612</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.664676502509208</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.33004796509341</v>
+        <v>-21.42855445167456</v>
       </c>
       <c r="F87" t="n">
-        <v>1.87693600615644</v>
+        <v>1.922601958468381</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.893696039230829</v>
+        <v>-4.883366212288707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.998556689359603</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.672532698484</v>
+        <v>-22.76838144758828</v>
       </c>
       <c r="F88" t="n">
-        <v>1.970127017783847</v>
+        <v>2.021291737289312</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.66183135590386</v>
+        <v>-4.662093201960695</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.39330687986858</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.05528935541574</v>
+        <v>-24.13986563177329</v>
       </c>
       <c r="F89" t="n">
-        <v>1.834857344823133</v>
+        <v>1.895579445403058</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.27817451342992</v>
+        <v>-4.272531730905135</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.842553909821793</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.5248087032796</v>
+        <v>-25.60681888828017</v>
       </c>
       <c r="F90" t="n">
-        <v>1.622002685222351</v>
+        <v>1.674162419743787</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.162818233091471</v>
+        <v>-4.167623108234385</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.345846241116257</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.16840330972705</v>
+        <v>-27.24901261832356</v>
       </c>
       <c r="F91" t="n">
-        <v>1.417972237736892</v>
+        <v>1.464895051121638</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062819223986367</v>
+        <v>-4.059441409853202</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.896716989387253</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.7643681184363</v>
+        <v>-28.83090320147795</v>
       </c>
       <c r="F92" t="n">
-        <v>1.295978159857688</v>
+        <v>1.337899713556895</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.793497462229221</v>
+        <v>-3.786977495414041</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.484398856838245</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.61423195615514</v>
+        <v>-30.67494096443223</v>
       </c>
       <c r="F93" t="n">
-        <v>1.157500872700751</v>
+        <v>1.197340750248124</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.785275496044616</v>
+        <v>-3.772052270174473</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.090273067358122</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.69302780136441</v>
+        <v>-32.74535773582279</v>
       </c>
       <c r="F94" t="n">
-        <v>1.044239360816979</v>
+        <v>1.081133470224963</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.780156405633501</v>
+        <v>-3.761238028027207</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.704288817170079</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.72492701779461</v>
+        <v>-34.76921827830817</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6398966798531113</v>
+        <v>0.6776941581571744</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.765820334021811</v>
+        <v>-3.744466788086956</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.312643375477878</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.69628742588467</v>
+        <v>-36.73428128873136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4152458553919336</v>
+        <v>0.4605190386186224</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.978347686051551</v>
+        <v>-3.961799015259609</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.895722221580385</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.785583297973</v>
+        <v>-38.81758088611818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03428602730338849</v>
+        <v>0.07234535166428617</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.976645686682126</v>
+        <v>-3.948313943332631</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.43947495023255</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01022739683909</v>
+        <v>-41.02610836018611</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1761858331801998</v>
+        <v>-0.1310828498904535</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.176931735554851</v>
+        <v>-4.147748992520644</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.92710836618153</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38993673056259</v>
+        <v>-43.39988688072231</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.09689884717070671</v>
+        <v>-0.05233264829747118</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.505705644516277</v>
+        <v>-4.477766670252033</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.36304137273455</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79631508517468</v>
+        <v>-45.79585685457523</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3636283329651919</v>
+        <v>-0.3354013280384305</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.689979807013571</v>
+        <v>-4.653975974198825</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.72310861300801</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19503444262437</v>
+        <v>-48.19400015069987</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3011256791987916</v>
+        <v>-0.261010863291743</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.968466180759926</v>
+        <v>-4.921896859551906</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.03329489559182</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41234685189909</v>
+        <v>-50.40136240981489</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4474321634550805</v>
+        <v>-0.4102893002931036</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.326174079001566</v>
+        <v>-5.284776217416028</v>
       </c>
     </row>
   </sheetData>
